--- a/pageObjectModel/dataSheets/facebookDataSheet.xlsx
+++ b/pageObjectModel/dataSheets/facebookDataSheet.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11310" windowHeight="4050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testCases" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E12"/>
 </workbook>
 </file>
 
@@ -442,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
